--- a/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Tables5-11.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Tables5-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699E66A7-0953-634E-A4F5-4A0C8B8D5E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B3990-829B-3741-8BBF-9CF8F21341B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1920" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="2100" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
